--- a/data_lake/아군부대현황.xlsx
+++ b/data_lake/아군부대현황.xlsx
@@ -585,7 +585,11 @@
           <t>SFG*C-------</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr"/>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -657,7 +661,11 @@
           <t>SFG*I-------</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr"/>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -729,7 +737,11 @@
           <t>SFG*C-------</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr"/>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -801,7 +813,11 @@
           <t>SFG*F-------</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr"/>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -873,7 +889,11 @@
           <t>SFG*R-------</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr"/>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -945,7 +965,11 @@
           <t>SFG*C-------</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr"/>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1017,7 +1041,11 @@
           <t>SFG*E-------</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1089,7 +1117,11 @@
           <t>SFG*U-------</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1161,7 +1193,11 @@
           <t>SFG*U-------</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1233,7 +1269,11 @@
           <t>SFG*U-------</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1274,14 +1314,26 @@
           <t>가용</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr"/>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>지원</t>
+        </is>
+      </c>
       <c r="J12" t="inlineStr">
         <is>
           <t>37.55, 126.75</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>제1항공여단</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>제1군단</t>
+        </is>
+      </c>
       <c r="M12" t="n">
         <v>200</v>
       </c>
@@ -1293,7 +1345,11 @@
           <t>SFAPMFQE--*****</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1334,14 +1390,26 @@
           <t>가용</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr"/>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>특수작전</t>
+        </is>
+      </c>
       <c r="J13" t="inlineStr">
         <is>
           <t>37.98, 127.15</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>제1특수작전팀</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>제1군단</t>
+        </is>
+      </c>
       <c r="M13" t="n">
         <v>20</v>
       </c>
@@ -1353,7 +1421,11 @@
           <t>SFGP-------</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1379,7 +1451,11 @@
       <c r="E14" t="n">
         <v>85</v>
       </c>
-      <c r="F14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>AXIS06</t>
+        </is>
+      </c>
       <c r="G14" t="inlineStr">
         <is>
           <t>TERR027</t>
@@ -1421,7 +1497,11 @@
           <t>SFA*HA----</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
